--- a/每日学习.xlsx
+++ b/每日学习.xlsx
@@ -1,48 +1,406 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>完成度</t>
+  </si>
+  <si>
+    <t>idea的运用，一些基础指令，编程语言（注释，变量等）</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -50,21 +408,313 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -355,50 +1005,98 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="3" max="3" width="31.375" customWidth="1"/>
+    <col min="5" max="5" width="31.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/每日学习.xlsx
+++ b/每日学习.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>日期</t>
   </si>
@@ -34,6 +34,33 @@
   </si>
   <si>
     <t>完成</t>
+  </si>
+  <si>
+    <t>9：30-11：07</t>
+  </si>
+  <si>
+    <t>二、十、八、十六进制，数据类型，变量转换</t>
+  </si>
+  <si>
+    <t>8；00-9：44</t>
+  </si>
+  <si>
+    <t>运算符（到逻辑运算符）</t>
+  </si>
+  <si>
+    <t>(今天下午肚子疼，没学，晚了些）</t>
+  </si>
+  <si>
+    <t>9：03-10:58</t>
+  </si>
+  <si>
+    <t>运算符，接受用户数据</t>
+  </si>
+  <si>
+    <t>7:00-8：39</t>
+  </si>
+  <si>
+    <t>流程控制（if，switch分支，for循环）</t>
   </si>
 </sst>
 </file>
@@ -46,14 +73,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,48 +531,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -562,97 +585,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1011,16 +1031,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="3" width="31.375" customWidth="1"/>
-    <col min="5" max="5" width="31.125" customWidth="1"/>
+    <col min="2" max="2" width="34.875" customWidth="1"/>
+    <col min="3" max="3" width="52.25" customWidth="1"/>
+    <col min="4" max="4" width="23.375" customWidth="1"/>
+    <col min="5" max="5" width="70" customWidth="1"/>
+    <col min="7" max="7" width="44.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1054,6 +1077,49 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>5</v>
       </c>
     </row>

--- a/每日学习.xlsx
+++ b/每日学习.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -61,6 +61,51 @@
   </si>
   <si>
     <t>流程控制（if，switch分支，for循环）</t>
+  </si>
+  <si>
+    <t>8：30-10：15</t>
+  </si>
+  <si>
+    <t>for循环 while循环 dowhile循环 死循环</t>
+  </si>
+  <si>
+    <t>2：：03-3:38</t>
+  </si>
+  <si>
+    <t>循环嵌套 break continue 生成随机数</t>
+  </si>
+  <si>
+    <t>10：17-10：46</t>
+  </si>
+  <si>
+    <t>C语言：一些基本概念吧</t>
+  </si>
+  <si>
+    <t>4:05-5：20</t>
+  </si>
+  <si>
+    <t>C语言一些基本概念  高数 映射</t>
+  </si>
+  <si>
+    <t>9：20-10：41</t>
+  </si>
+  <si>
+    <t>函数</t>
+  </si>
+  <si>
+    <t>9：00-10：30</t>
+  </si>
+  <si>
+    <t>函数的一些性质 数列的极限（没学完）</t>
+  </si>
+  <si>
+    <t>7：00-8：34</t>
+  </si>
+  <si>
+    <t>翻了一下书 去翻了一些视频（算是vs的补充内容？还有一些算是一些程序员的基本修养？）</t>
+  </si>
+  <si>
+    <t>emmm感觉还算有用吧，这两天就相当于构建一下环境，学习了vs，明天算是正式开始C语言吧</t>
   </si>
 </sst>
 </file>
@@ -1031,19 +1076,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="34.875" customWidth="1"/>
     <col min="3" max="3" width="52.25" customWidth="1"/>
     <col min="4" max="4" width="23.375" customWidth="1"/>
     <col min="5" max="5" width="70" customWidth="1"/>
-    <col min="7" max="7" width="44.875" customWidth="1"/>
+    <col min="7" max="7" width="80.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1121,6 +1166,71 @@
       </c>
       <c r="F4" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/每日学习.xlsx
+++ b/每日学习.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>日期</t>
   </si>
@@ -106,6 +106,18 @@
   </si>
   <si>
     <t>emmm感觉还算有用吧，这两天就相当于构建一下环境，学习了vs，明天算是正式开始C语言吧</t>
+  </si>
+  <si>
+    <t>1：06—3：53</t>
+  </si>
+  <si>
+    <t>数据类型，变量，常量</t>
+  </si>
+  <si>
+    <t>3：06—6：53</t>
+  </si>
+  <si>
+    <t>常量 字符串 转义字符 for while 函数与数组</t>
   </si>
 </sst>
 </file>
@@ -1076,13 +1088,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="34.875" customWidth="1"/>
     <col min="3" max="3" width="52.25" customWidth="1"/>
@@ -1231,6 +1243,28 @@
       </c>
       <c r="G8" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/每日学习.xlsx
+++ b/每日学习.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="25800" windowHeight="17790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>日期</t>
   </si>
@@ -118,6 +118,18 @@
   </si>
   <si>
     <t>常量 字符串 转义字符 for while 函数与数组</t>
+  </si>
+  <si>
+    <t>10：24—11：27</t>
+  </si>
+  <si>
+    <t>操作符</t>
+  </si>
+  <si>
+    <t>3：15-7：20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">常见的一些关键字 常量和宏 指针 结构体 </t>
   </si>
 </sst>
 </file>
@@ -1088,10 +1100,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1265,6 +1277,23 @@
       </c>
       <c r="C10" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/每日学习.xlsx
+++ b/每日学习.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>日期</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t xml:space="preserve">常见的一些关键字 常量和宏 指针 结构体 </t>
+  </si>
+  <si>
+    <t>2：44-6;57</t>
+  </si>
+  <si>
+    <t>关键字 ifelse switch while for（未结束）</t>
   </si>
 </sst>
 </file>
@@ -1100,10 +1106,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1294,6 +1300,17 @@
       </c>
       <c r="E11" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/每日学习.xlsx
+++ b/每日学习.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>日期</t>
   </si>
@@ -136,6 +136,18 @@
   </si>
   <si>
     <t>关键字 ifelse switch while for（未结束）</t>
+  </si>
+  <si>
+    <t>4：42—6：54</t>
+  </si>
+  <si>
+    <t>dowhile n的阶乘 阶乘和 有序数组寻找n（二分法）</t>
+  </si>
+  <si>
+    <t>3：00-7：20</t>
+  </si>
+  <si>
+    <t>多字符两端移动 输入密码 猜数字游戏</t>
   </si>
 </sst>
 </file>
@@ -1106,10 +1118,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1311,6 +1323,28 @@
       </c>
       <c r="C12" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/每日学习.xlsx
+++ b/每日学习.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>日期</t>
   </si>
@@ -148,6 +148,15 @@
   </si>
   <si>
     <t>多字符两端移动 输入密码 猜数字游戏</t>
+  </si>
+  <si>
+    <t>2：26-4：48</t>
+  </si>
+  <si>
+    <t>从小到大输出数字 输出素数 找最大公约数</t>
+  </si>
+  <si>
+    <t>（呃呃，今天朋友来找我玩，再加上后天考科一，有点小水）</t>
   </si>
 </sst>
 </file>
@@ -1118,10 +1127,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1345,6 +1354,20 @@
       </c>
       <c r="C14" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/每日学习.xlsx
+++ b/每日学习.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>日期</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>（呃呃，今天朋友来找我玩，再加上后天考科一，有点小水）</t>
+  </si>
+  <si>
+    <t>3；14-7；15</t>
+  </si>
+  <si>
+    <t>goto指令 关机程序 正式进入函数 一些库函数</t>
   </si>
 </sst>
 </file>
@@ -1127,10 +1133,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1368,6 +1374,17 @@
       </c>
       <c r="E15" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/每日学习.xlsx
+++ b/每日学习.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>日期</t>
   </si>
@@ -163,6 +163,15 @@
   </si>
   <si>
     <t>goto指令 关机程序 正式进入函数 一些库函数</t>
+  </si>
+  <si>
+    <t>2：04-6;07</t>
+  </si>
+  <si>
+    <t>函数 传值函数 传址函数 函数的嵌套调用和链式访问</t>
+  </si>
+  <si>
+    <t>（这两天好像更多是概念和复习，新代码敲得少，明天应该好点，函数的递归了）</t>
   </si>
 </sst>
 </file>
@@ -1133,10 +1142,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1385,6 +1394,20 @@
       </c>
       <c r="C16" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/每日学习.xlsx
+++ b/每日学习.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>日期</t>
   </si>
@@ -172,6 +172,15 @@
   </si>
   <si>
     <t>（这两天好像更多是概念和复习，新代码敲得少，明天应该好点，函数的递归了）</t>
+  </si>
+  <si>
+    <t>3：12-6：21</t>
+  </si>
+  <si>
+    <t>函数递归 写了些代码，还改进了些代码</t>
+  </si>
+  <si>
+    <t>（文档里的不是很全，后面有些代码我就直接记录的，没有自己打）</t>
   </si>
 </sst>
 </file>
@@ -1142,10 +1151,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1408,6 +1417,20 @@
       </c>
       <c r="E17" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/每日学习.xlsx
+++ b/每日学习.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>日期</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>（文档里的不是很全，后面有些代码我就直接记录的，没有自己打）</t>
+  </si>
+  <si>
+    <t>2：37-6：36</t>
+  </si>
+  <si>
+    <t>复习 敲了些代码 数组 三子棋（没学完）</t>
   </si>
 </sst>
 </file>
@@ -1151,10 +1157,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1431,6 +1437,17 @@
       </c>
       <c r="E18" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/每日学习.xlsx
+++ b/每日学习.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t>日期</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>复习 敲了些代码 数组 三子棋（没学完）</t>
+  </si>
+  <si>
+    <t>然后说一下进度吧，目前是在复习吧，才第二章堪堪结束，代码今天也在跟着打了，不过有点问题，就是代码的格式不大一样，一些还好，能够自己修改，有一些代码我直接不会运行了（第二章好多之前写过，后面就没怎么写）</t>
+  </si>
+  <si>
+    <t>额，简单说一下这两天的情况，激活完卡回来后，当天是歇了会，然后去乡政府登记了一下，然后捣鼓那个新生报到了，昨天是把那个线上数学给做了，然后一个朋友今天走，跟他去玩了一会儿，今天就是正常写代码了，后面不出意外就都这样了</t>
   </si>
 </sst>
 </file>
@@ -802,9 +808,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1157,10 +1166,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E19" sqref="E19:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1439,7 +1448,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>8</v>
       </c>
@@ -1449,10 +1458,47 @@
       <c r="C19" t="s">
         <v>56</v>
       </c>
+      <c r="E19" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="E24" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="E19:E24"/>
+    <mergeCell ref="A20:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/每日学习.xlsx
+++ b/每日学习.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
   <si>
     <t>日期</t>
   </si>
@@ -193,6 +193,15 @@
   </si>
   <si>
     <t>额，简单说一下这两天的情况，激活完卡回来后，当天是歇了会，然后去乡政府登记了一下，然后捣鼓那个新生报到了，昨天是把那个线上数学给做了，然后一个朋友今天走，跟他去玩了一会儿，今天就是正常写代码了，后面不出意外就都这样了</t>
+  </si>
+  <si>
+    <t>今天的话，学校要考英语，给做了一下，然后乡政府领钱那个要我准备一份稿子，就去网上找了然后改了一段时间</t>
+  </si>
+  <si>
+    <t>今天把第三章给过了，循环啊，条件语句之类的，那上面的例子，之前全写过，就偷了一波懒</t>
+  </si>
+  <si>
+    <t>然后今天的那个代码，就是我把之前那个运营不了的代码给又抄了一遍</t>
   </si>
 </sst>
 </file>
@@ -1166,10 +1175,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:E24"/>
+      <selection activeCell="A25" sqref="A25:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1458,47 +1467,73 @@
       <c r="C19" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="E27" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="E19:E24"/>
+    <mergeCell ref="E25:E26"/>
     <mergeCell ref="A20:C24"/>
+    <mergeCell ref="A25:C27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/每日学习.xlsx
+++ b/每日学习.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25800" windowHeight="17790"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>日期</t>
   </si>
@@ -202,6 +202,15 @@
   </si>
   <si>
     <t>然后今天的那个代码，就是我把之前那个运营不了的代码给又抄了一遍</t>
+  </si>
+  <si>
+    <t>这两天，一方面在推进度，另一方面，对之前的内容进行重读，编写，网上找讲解，感觉之前的内容，没有读太明白，最近代码写起来有点吃力</t>
+  </si>
+  <si>
+    <t>把之前内容重新看了看，进度推到4.9初始化</t>
+  </si>
+  <si>
+    <t>然后，看完后发现，不是代码问题，是我自己理解问题，之前没有理解getchar函数等等</t>
   </si>
 </sst>
 </file>
@@ -214,10 +223,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -675,10 +691,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -687,34 +703,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -726,98 +739,101 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -826,6 +842,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1175,10 +1194,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:C27"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1504,36 +1523,55 @@
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="E25" s="2" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="E25" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
       <c r="E27" t="s">
         <v>61</v>
       </c>
     </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="E28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="E29" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="E19:E24"/>
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="A20:C24"/>
     <mergeCell ref="A25:C27"/>
+    <mergeCell ref="A28:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/每日学习.xlsx
+++ b/每日学习.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
   <si>
     <t>日期</t>
   </si>
@@ -211,6 +211,12 @@
   </si>
   <si>
     <t>然后，看完后发现，不是代码问题，是我自己理解问题，之前没有理解getchar函数等等</t>
+  </si>
+  <si>
+    <t>2：00-5：13</t>
+  </si>
+  <si>
+    <t>到5.6指针数组以及指向指针的指针</t>
   </si>
 </sst>
 </file>
@@ -833,12 +839,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1194,10 +1197,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1547,21 +1550,32 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
       <c r="E28" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="E29" s="3" t="s">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="E29" s="2" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/每日学习.xlsx
+++ b/每日学习.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
     <t>日期</t>
   </si>
@@ -217,6 +217,12 @@
   </si>
   <si>
     <t>到5.6指针数组以及指向指针的指针</t>
+  </si>
+  <si>
+    <t>3：17-5：45</t>
+  </si>
+  <si>
+    <t>第七章结束，明天开始Unix</t>
   </si>
 </sst>
 </file>
@@ -1197,10 +1203,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1576,6 +1582,17 @@
       </c>
       <c r="C30" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/每日学习.xlsx
+++ b/每日学习.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
   <si>
     <t>日期</t>
   </si>
@@ -223,6 +223,12 @@
   </si>
   <si>
     <t>第七章结束，明天开始Unix</t>
+  </si>
+  <si>
+    <t>2：57-5：15</t>
+  </si>
+  <si>
+    <t>到了微分的定义</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1209,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1593,6 +1599,17 @@
       </c>
       <c r="C31" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/每日学习.xlsx
+++ b/每日学习.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
   <si>
     <t>日期</t>
   </si>
@@ -229,6 +229,15 @@
   </si>
   <si>
     <t>到了微分的定义</t>
+  </si>
+  <si>
+    <t>5：13-6：09</t>
+  </si>
+  <si>
+    <t>翻了翻C语言</t>
+  </si>
+  <si>
+    <t>今天七月半，上午烧纸，下午挂水，摸鱼了（明天科二，鸽了）</t>
   </si>
 </sst>
 </file>
@@ -1209,10 +1218,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1610,6 +1619,20 @@
       </c>
       <c r="C32" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/每日学习.xlsx
+++ b/每日学习.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
   <si>
     <t>日期</t>
   </si>
@@ -228,7 +228,7 @@
     <t>2：57-5：15</t>
   </si>
   <si>
-    <t>到了微分的定义</t>
+    <t>到了求导法则</t>
   </si>
   <si>
     <t>5：13-6：09</t>
@@ -238,6 +238,30 @@
   </si>
   <si>
     <t>今天七月半，上午烧纸，下午挂水，摸鱼了（明天科二，鸽了）</t>
+  </si>
+  <si>
+    <t>有点摸鱼，看了两篇英语短文</t>
+  </si>
+  <si>
+    <t>背了小半小时的单词</t>
+  </si>
+  <si>
+    <t>3：07 - 6：09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数学：求导那边 </t>
+  </si>
+  <si>
+    <t>书： 看到了1.1.7(不知道为啥，感觉比C语言那本书难看很多，看不大明白)</t>
+  </si>
+  <si>
+    <t>2：59 —5：37</t>
+  </si>
+  <si>
+    <t>微分刚开始</t>
+  </si>
+  <si>
+    <t>书的话，不出意外每天两页，我就不说了</t>
   </si>
 </sst>
 </file>
@@ -1218,10 +1242,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1633,6 +1657,45 @@
       </c>
       <c r="E33" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/每日学习.xlsx
+++ b/每日学习.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="84">
   <si>
     <t>日期</t>
   </si>
@@ -262,6 +262,12 @@
   </si>
   <si>
     <t>书的话，不出意外每天两页，我就不说了</t>
+  </si>
+  <si>
+    <t>2：27 - 5：23</t>
+  </si>
+  <si>
+    <t>柯西中值</t>
   </si>
 </sst>
 </file>
@@ -1242,10 +1248,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1696,6 +1702,17 @@
       </c>
       <c r="E36" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/每日学习.xlsx
+++ b/每日学习.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
   <si>
     <t>日期</t>
   </si>
@@ -268,6 +268,12 @@
   </si>
   <si>
     <t>柯西中值</t>
+  </si>
+  <si>
+    <t>极值和求法</t>
+  </si>
+  <si>
+    <t>诶，还有两天开学，打算小摸一手？</t>
   </si>
 </sst>
 </file>
@@ -1248,10 +1254,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1713,6 +1719,14 @@
       </c>
       <c r="C37" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5">
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
